--- a/SIRS MODELS/galicia/29_03_2020.xlsx
+++ b/SIRS MODELS/galicia/29_03_2020.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vlour\Desktop\COVID19\SIRS MODELS\galicia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7655303A-1BF3-4592-B9DB-9E8657EC450F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CD26661-09FC-4144-8353-8D5714F4B1B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -8115,8 +8115,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:AD426"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Z7" sqref="Z7"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="W4" sqref="W4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/SIRS MODELS/galicia/29_03_2020.xlsx
+++ b/SIRS MODELS/galicia/29_03_2020.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vlour\Desktop\COVID19\SIRS MODELS\galicia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CD26661-09FC-4144-8353-8D5714F4B1B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E119EF20-698C-414E-BD52-05383F0D3F9A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -222,9 +222,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.000%"/>
+    <numFmt numFmtId="166" formatCode="0.0%"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -863,7 +864,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="177">
+  <cellXfs count="178">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1335,6 +1336,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6280,7 +6284,7 @@
         <c:axId val="2005682768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="30"/>
+          <c:max val="35"/>
           <c:min val="13"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -6413,7 +6417,7 @@
         <c:axId val="1155306496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="4500"/>
+          <c:max val="5000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -8115,8 +8119,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:AD426"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="W4" sqref="W4"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8131,37 +8135,37 @@
   <sheetData>
     <row r="1" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="159" t="s">
+      <c r="B2" s="160" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="160"/>
-      <c r="D2" s="160"/>
-      <c r="E2" s="160"/>
-      <c r="F2" s="160"/>
-      <c r="G2" s="161"/>
-      <c r="H2" s="162" t="s">
+      <c r="C2" s="161"/>
+      <c r="D2" s="161"/>
+      <c r="E2" s="161"/>
+      <c r="F2" s="161"/>
+      <c r="G2" s="162"/>
+      <c r="H2" s="163" t="s">
         <v>33</v>
       </c>
-      <c r="I2" s="163"/>
-      <c r="J2" s="163"/>
-      <c r="K2" s="163"/>
-      <c r="L2" s="163"/>
-      <c r="M2" s="163"/>
-      <c r="N2" s="164"/>
-      <c r="P2" s="162" t="s">
+      <c r="I2" s="164"/>
+      <c r="J2" s="164"/>
+      <c r="K2" s="164"/>
+      <c r="L2" s="164"/>
+      <c r="M2" s="164"/>
+      <c r="N2" s="165"/>
+      <c r="P2" s="163" t="s">
         <v>30</v>
       </c>
-      <c r="Q2" s="163"/>
-      <c r="R2" s="163"/>
-      <c r="S2" s="163"/>
-      <c r="T2" s="163"/>
-      <c r="U2" s="164"/>
-      <c r="W2" s="165" t="s">
+      <c r="Q2" s="164"/>
+      <c r="R2" s="164"/>
+      <c r="S2" s="164"/>
+      <c r="T2" s="164"/>
+      <c r="U2" s="165"/>
+      <c r="W2" s="166" t="s">
         <v>17</v>
       </c>
-      <c r="X2" s="166"/>
-      <c r="Y2" s="166"/>
-      <c r="Z2" s="167"/>
+      <c r="X2" s="167"/>
+      <c r="Y2" s="167"/>
+      <c r="Z2" s="168"/>
     </row>
     <row r="3" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="82" t="s">
@@ -8203,13 +8207,13 @@
       <c r="N3" s="86" t="s">
         <v>12</v>
       </c>
-      <c r="P3" s="168" t="s">
+      <c r="P3" s="169" t="s">
         <v>26</v>
       </c>
-      <c r="Q3" s="169"/>
-      <c r="R3" s="169"/>
-      <c r="S3" s="169"/>
-      <c r="T3" s="170"/>
+      <c r="Q3" s="170"/>
+      <c r="R3" s="170"/>
+      <c r="S3" s="170"/>
+      <c r="T3" s="171"/>
       <c r="U3" s="64">
         <f>2699499</f>
         <v>2699499</v>
@@ -8272,13 +8276,13 @@
       <c r="N4" s="87">
         <v>0</v>
       </c>
-      <c r="P4" s="171" t="s">
+      <c r="P4" s="172" t="s">
         <v>27</v>
       </c>
-      <c r="Q4" s="172"/>
-      <c r="R4" s="172"/>
-      <c r="S4" s="172"/>
-      <c r="T4" s="173"/>
+      <c r="Q4" s="173"/>
+      <c r="R4" s="173"/>
+      <c r="S4" s="173"/>
+      <c r="T4" s="174"/>
       <c r="U4" s="65">
         <f>1084.3*1000</f>
         <v>1084300</v>
@@ -8347,13 +8351,13 @@
         <f t="shared" ref="N5:N24" si="6">K5-K4</f>
         <v>0</v>
       </c>
-      <c r="P5" s="168" t="s">
+      <c r="P5" s="169" t="s">
         <v>28</v>
       </c>
-      <c r="Q5" s="169"/>
-      <c r="R5" s="169"/>
-      <c r="S5" s="169"/>
-      <c r="T5" s="170"/>
+      <c r="Q5" s="170"/>
+      <c r="R5" s="170"/>
+      <c r="S5" s="170"/>
+      <c r="T5" s="171"/>
       <c r="U5" s="96">
         <f>U3/U4</f>
         <v>2.4896237203725908</v>
@@ -8406,13 +8410,13 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P6" s="168" t="s">
+      <c r="P6" s="169" t="s">
         <v>34</v>
       </c>
-      <c r="Q6" s="169"/>
-      <c r="R6" s="169"/>
-      <c r="S6" s="169"/>
-      <c r="T6" s="170"/>
+      <c r="Q6" s="170"/>
+      <c r="R6" s="170"/>
+      <c r="S6" s="170"/>
+      <c r="T6" s="171"/>
       <c r="U6" s="96">
         <v>7</v>
       </c>
@@ -8464,13 +8468,13 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P7" s="168" t="s">
+      <c r="P7" s="169" t="s">
         <v>35</v>
       </c>
-      <c r="Q7" s="169"/>
-      <c r="R7" s="169"/>
-      <c r="S7" s="169"/>
-      <c r="T7" s="170"/>
+      <c r="Q7" s="170"/>
+      <c r="R7" s="170"/>
+      <c r="S7" s="170"/>
+      <c r="T7" s="171"/>
       <c r="U7" s="97">
         <f>2.68</f>
         <v>2.68</v>
@@ -8524,13 +8528,13 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P8" s="168" t="s">
+      <c r="P8" s="169" t="s">
         <v>36</v>
       </c>
-      <c r="Q8" s="169"/>
-      <c r="R8" s="169"/>
-      <c r="S8" s="169"/>
-      <c r="T8" s="170"/>
+      <c r="Q8" s="170"/>
+      <c r="R8" s="170"/>
+      <c r="S8" s="170"/>
+      <c r="T8" s="171"/>
       <c r="U8" s="97">
         <f>U5</f>
         <v>2.4896237203725908</v>
@@ -8584,13 +8588,13 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P9" s="174" t="s">
+      <c r="P9" s="175" t="s">
         <v>29</v>
       </c>
-      <c r="Q9" s="175"/>
-      <c r="R9" s="175"/>
-      <c r="S9" s="175"/>
-      <c r="T9" s="176"/>
+      <c r="Q9" s="176"/>
+      <c r="R9" s="176"/>
+      <c r="S9" s="176"/>
+      <c r="T9" s="177"/>
       <c r="U9" s="98">
         <f>U8/(U7^U6)</f>
         <v>2.5072067881136053E-3</v>
@@ -8693,14 +8697,14 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P11" s="162" t="s">
+      <c r="P11" s="163" t="s">
         <v>25</v>
       </c>
-      <c r="Q11" s="163"/>
-      <c r="R11" s="163"/>
-      <c r="S11" s="163"/>
-      <c r="T11" s="163"/>
-      <c r="U11" s="164"/>
+      <c r="Q11" s="164"/>
+      <c r="R11" s="164"/>
+      <c r="S11" s="164"/>
+      <c r="T11" s="164"/>
+      <c r="U11" s="165"/>
     </row>
     <row r="12" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="7">
@@ -10336,6 +10340,7 @@
         <f t="shared" si="48"/>
         <v>58</v>
       </c>
+      <c r="O32" s="159"/>
       <c r="P32" s="123">
         <f t="shared" ref="P32:P48" si="52">Y$4*((1+W$4-X$4)*(1+W$4+Z$4)-X$4)</f>
         <v>2.1555378861002543E-5</v>
@@ -10389,8 +10394,8 @@
         <v>210</v>
       </c>
       <c r="F33" s="140">
-        <f t="shared" ref="F33:F96" si="62">D33*(F$31/D$31)</f>
-        <v>62.193362193362191</v>
+        <f>D33*(F$32/D$32)</f>
+        <v>67.004778591908263</v>
       </c>
       <c r="G33" s="141">
         <f t="shared" si="2"/>
@@ -10401,15 +10406,15 @@
         <v>1.0984389933099714</v>
       </c>
       <c r="I33" s="143">
-        <f t="shared" ref="I33:I58" si="63">INT((Z$4*K33+I32)/(1+Y$4*J33))</f>
+        <f t="shared" ref="I33:I58" si="62">INT((Z$4*K33+I32)/(1+Y$4*J33))</f>
         <v>3359</v>
       </c>
       <c r="J33" s="139">
-        <f t="shared" ref="J33:J58" si="64">S33</f>
+        <f t="shared" ref="J33:J58" si="63">S33</f>
         <v>3234</v>
       </c>
       <c r="K33" s="140">
-        <f t="shared" ref="K33:K58" si="65">INT((X$4*J33+K32)/(1+W$4+Z$4))</f>
+        <f t="shared" ref="K33:K58" si="64">INT((X$4*J33+K32)/(1+W$4+Z$4))</f>
         <v>210</v>
       </c>
       <c r="L33" s="143">
@@ -10462,8 +10467,8 @@
         <v>286</v>
       </c>
       <c r="F34" s="24">
-        <f t="shared" si="62"/>
-        <v>67.622655122655118</v>
+        <f>D34*(F$32/D$32)</f>
+        <v>72.854093660401404</v>
       </c>
       <c r="G34" s="92">
         <f t="shared" si="2"/>
@@ -10474,15 +10479,15 @@
         <v>1.0872969837587008</v>
       </c>
       <c r="I34" s="35">
+        <f t="shared" si="62"/>
+        <v>2987</v>
+      </c>
+      <c r="J34" s="4">
         <f t="shared" si="63"/>
-        <v>2987</v>
-      </c>
-      <c r="J34" s="4">
+        <v>3535</v>
+      </c>
+      <c r="K34" s="24">
         <f t="shared" si="64"/>
-        <v>3535</v>
-      </c>
-      <c r="K34" s="24">
-        <f t="shared" si="65"/>
         <v>286</v>
       </c>
       <c r="L34" s="35">
@@ -10535,8 +10540,8 @@
         <v>387</v>
       </c>
       <c r="F35" s="26">
-        <f t="shared" si="62"/>
-        <v>72.745310245310236</v>
+        <f t="shared" ref="F34:F97" si="65">D35*(F$32/D$32)</f>
+        <v>78.373048741637476</v>
       </c>
       <c r="G35" s="91">
         <f t="shared" si="2"/>
@@ -10547,15 +10552,15 @@
         <v>1.0757535342758069</v>
       </c>
       <c r="I35" s="36">
+        <f t="shared" si="62"/>
+        <v>2607</v>
+      </c>
+      <c r="J35" s="13">
         <f t="shared" si="63"/>
-        <v>2607</v>
-      </c>
-      <c r="J35" s="13">
+        <v>3819</v>
+      </c>
+      <c r="K35" s="23">
         <f t="shared" si="64"/>
-        <v>3819</v>
-      </c>
-      <c r="K35" s="23">
-        <f t="shared" si="65"/>
         <v>387</v>
       </c>
       <c r="L35" s="36">
@@ -10608,8 +10613,8 @@
         <v>521</v>
       </c>
       <c r="F36" s="24">
-        <f t="shared" si="62"/>
-        <v>77.398989898989896</v>
+        <f t="shared" si="65"/>
+        <v>83.386747371774462</v>
       </c>
       <c r="G36" s="92">
         <f t="shared" ref="G36:G67" si="66">D36/U$3</f>
@@ -10620,15 +10625,15 @@
         <v>1.0639722291098437</v>
       </c>
       <c r="I36" s="35">
+        <f t="shared" si="62"/>
+        <v>2220</v>
+      </c>
+      <c r="J36" s="25">
         <f t="shared" si="63"/>
-        <v>2220</v>
-      </c>
-      <c r="J36" s="25">
+        <v>4077</v>
+      </c>
+      <c r="K36" s="24">
         <f t="shared" si="64"/>
-        <v>4077</v>
-      </c>
-      <c r="K36" s="24">
-        <f t="shared" si="65"/>
         <v>521</v>
       </c>
       <c r="L36" s="35">
@@ -10681,8 +10686,8 @@
         <v>699</v>
       </c>
       <c r="F37" s="26">
-        <f t="shared" si="62"/>
-        <v>81.439393939393938</v>
+        <f t="shared" si="65"/>
+        <v>87.739726027397268</v>
       </c>
       <c r="G37" s="91">
         <f t="shared" si="66"/>
@@ -10693,15 +10698,15 @@
         <v>1.0522022838499185</v>
       </c>
       <c r="I37" s="36">
+        <f t="shared" si="62"/>
+        <v>1824</v>
+      </c>
+      <c r="J37" s="13">
         <f t="shared" si="63"/>
-        <v>1824</v>
-      </c>
-      <c r="J37" s="13">
+        <v>4301</v>
+      </c>
+      <c r="K37" s="23">
         <f t="shared" si="64"/>
-        <v>4301</v>
-      </c>
-      <c r="K37" s="23">
-        <f t="shared" si="65"/>
         <v>699</v>
       </c>
       <c r="L37" s="36">
@@ -10754,8 +10759,8 @@
         <v>934</v>
       </c>
       <c r="F38" s="24">
-        <f t="shared" si="62"/>
-        <v>84.704184704184698</v>
+        <f t="shared" si="65"/>
+        <v>91.257088244663919</v>
       </c>
       <c r="G38" s="92">
         <f t="shared" si="66"/>
@@ -10766,15 +10771,15 @@
         <v>1.0400885935769657</v>
       </c>
       <c r="I38" s="35">
+        <f t="shared" si="62"/>
+        <v>1414</v>
+      </c>
+      <c r="J38" s="25">
         <f t="shared" si="63"/>
-        <v>1414</v>
-      </c>
-      <c r="J38" s="25">
+        <v>4482</v>
+      </c>
+      <c r="K38" s="24">
         <f t="shared" si="64"/>
-        <v>4482</v>
-      </c>
-      <c r="K38" s="24">
-        <f t="shared" si="65"/>
         <v>934</v>
       </c>
       <c r="L38" s="35">
@@ -10827,8 +10832,8 @@
         <v>1245</v>
       </c>
       <c r="F39" s="26">
-        <f t="shared" si="62"/>
-        <v>87.031024531024528</v>
+        <f t="shared" si="65"/>
+        <v>93.763937559732412</v>
       </c>
       <c r="G39" s="91">
         <f t="shared" si="66"/>
@@ -10839,15 +10844,15 @@
         <v>1.0274701873935264</v>
       </c>
       <c r="I39" s="18">
+        <f t="shared" si="62"/>
+        <v>979</v>
+      </c>
+      <c r="J39" s="22">
         <f t="shared" si="63"/>
-        <v>979</v>
-      </c>
-      <c r="J39" s="22">
+        <v>4611</v>
+      </c>
+      <c r="K39" s="26">
         <f t="shared" si="64"/>
-        <v>4611</v>
-      </c>
-      <c r="K39" s="26">
-        <f t="shared" si="65"/>
         <v>1245</v>
       </c>
       <c r="L39" s="18">
@@ -10900,8 +10905,8 @@
         <v>1656</v>
       </c>
       <c r="F40" s="24">
-        <f t="shared" si="62"/>
-        <v>88.239538239538234</v>
+        <f t="shared" si="65"/>
+        <v>95.065944568333876</v>
       </c>
       <c r="G40" s="92">
         <f t="shared" si="66"/>
@@ -10912,15 +10917,15 @@
         <v>1.0138860103626943</v>
       </c>
       <c r="I40" s="35">
+        <f t="shared" si="62"/>
+        <v>505</v>
+      </c>
+      <c r="J40" s="25">
         <f t="shared" si="63"/>
-        <v>505</v>
-      </c>
-      <c r="J40" s="25">
+        <v>4678</v>
+      </c>
+      <c r="K40" s="24">
         <f t="shared" si="64"/>
-        <v>4678</v>
-      </c>
-      <c r="K40" s="24">
-        <f t="shared" si="65"/>
         <v>1656</v>
       </c>
       <c r="L40" s="35">
@@ -10973,8 +10978,8 @@
         <v>2199</v>
       </c>
       <c r="F41" s="26">
-        <f t="shared" si="62"/>
-        <v>88.239538239538234</v>
+        <f t="shared" si="65"/>
+        <v>95.065944568333876</v>
       </c>
       <c r="G41" s="91">
         <f t="shared" si="66"/>
@@ -10985,15 +10990,15 @@
         <v>1</v>
       </c>
       <c r="I41" s="18">
+        <f t="shared" si="62"/>
+        <v>-31</v>
+      </c>
+      <c r="J41" s="22">
         <f t="shared" si="63"/>
-        <v>-31</v>
-      </c>
-      <c r="J41" s="22">
+        <v>4674</v>
+      </c>
+      <c r="K41" s="26">
         <f t="shared" si="64"/>
-        <v>4674</v>
-      </c>
-      <c r="K41" s="26">
-        <f t="shared" si="65"/>
         <v>2199</v>
       </c>
       <c r="L41" s="18">
@@ -11046,8 +11051,8 @@
         <v>2916</v>
       </c>
       <c r="F42" s="24">
-        <f t="shared" si="62"/>
-        <v>88.239538239538234</v>
+        <f t="shared" si="65"/>
+        <v>95.065944568333876</v>
       </c>
       <c r="G42" s="92">
         <f t="shared" si="66"/>
@@ -11058,15 +11063,15 @@
         <v>1</v>
       </c>
       <c r="I42" s="35">
+        <f t="shared" si="62"/>
+        <v>-660</v>
+      </c>
+      <c r="J42" s="25">
         <f t="shared" si="63"/>
-        <v>-660</v>
-      </c>
-      <c r="J42" s="25">
+        <v>4587</v>
+      </c>
+      <c r="K42" s="24">
         <f t="shared" si="64"/>
-        <v>4587</v>
-      </c>
-      <c r="K42" s="24">
-        <f t="shared" si="65"/>
         <v>2916</v>
       </c>
       <c r="L42" s="35">
@@ -11119,8 +11124,8 @@
         <v>3862</v>
       </c>
       <c r="F43" s="26">
-        <f t="shared" si="62"/>
-        <v>88.239538239538234</v>
+        <f t="shared" si="65"/>
+        <v>95.065944568333876</v>
       </c>
       <c r="G43" s="91">
         <f t="shared" si="66"/>
@@ -11131,15 +11136,15 @@
         <v>1</v>
       </c>
       <c r="I43" s="18">
+        <f t="shared" si="62"/>
+        <v>-1428</v>
+      </c>
+      <c r="J43" s="22">
         <f t="shared" si="63"/>
-        <v>-1428</v>
-      </c>
-      <c r="J43" s="22">
+        <v>4407</v>
+      </c>
+      <c r="K43" s="26">
         <f t="shared" si="64"/>
-        <v>4407</v>
-      </c>
-      <c r="K43" s="26">
-        <f t="shared" si="65"/>
         <v>3862</v>
       </c>
       <c r="L43" s="18">
@@ -11192,8 +11197,8 @@
         <v>5111</v>
       </c>
       <c r="F44" s="24">
-        <f t="shared" si="62"/>
-        <v>88.239538239538234</v>
+        <f t="shared" si="65"/>
+        <v>95.065944568333876</v>
       </c>
       <c r="G44" s="92">
         <f t="shared" si="66"/>
@@ -11204,15 +11209,15 @@
         <v>1</v>
       </c>
       <c r="I44" s="35">
+        <f t="shared" si="62"/>
+        <v>-2399</v>
+      </c>
+      <c r="J44" s="25">
         <f t="shared" si="63"/>
-        <v>-2399</v>
-      </c>
-      <c r="J44" s="25">
+        <v>4124</v>
+      </c>
+      <c r="K44" s="24">
         <f t="shared" si="64"/>
-        <v>4124</v>
-      </c>
-      <c r="K44" s="24">
-        <f t="shared" si="65"/>
         <v>5111</v>
       </c>
       <c r="L44" s="35">
@@ -11265,8 +11270,8 @@
         <v>6760</v>
       </c>
       <c r="F45" s="26">
-        <f t="shared" si="62"/>
-        <v>88.239538239538234</v>
+        <f t="shared" si="65"/>
+        <v>95.065944568333876</v>
       </c>
       <c r="G45" s="91">
         <f t="shared" si="66"/>
@@ -11277,15 +11282,15 @@
         <v>1</v>
       </c>
       <c r="I45" s="36">
+        <f t="shared" si="62"/>
+        <v>-3666</v>
+      </c>
+      <c r="J45" s="13">
         <f t="shared" si="63"/>
-        <v>-3666</v>
-      </c>
-      <c r="J45" s="13">
+        <v>3733</v>
+      </c>
+      <c r="K45" s="23">
         <f t="shared" si="64"/>
-        <v>3733</v>
-      </c>
-      <c r="K45" s="23">
-        <f t="shared" si="65"/>
         <v>6760</v>
       </c>
       <c r="L45" s="36">
@@ -11338,8 +11343,8 @@
         <v>8936</v>
       </c>
       <c r="F46" s="24">
-        <f t="shared" si="62"/>
-        <v>88.239538239538234</v>
+        <f t="shared" si="65"/>
+        <v>95.065944568333876</v>
       </c>
       <c r="G46" s="92">
         <f t="shared" si="66"/>
@@ -11350,15 +11355,15 @@
         <v>1</v>
       </c>
       <c r="I46" s="35">
+        <f t="shared" si="62"/>
+        <v>-5362</v>
+      </c>
+      <c r="J46" s="25">
         <f t="shared" si="63"/>
-        <v>-5362</v>
-      </c>
-      <c r="J46" s="25">
+        <v>3237</v>
+      </c>
+      <c r="K46" s="24">
         <f t="shared" si="64"/>
-        <v>3237</v>
-      </c>
-      <c r="K46" s="24">
-        <f t="shared" si="65"/>
         <v>8936</v>
       </c>
       <c r="L46" s="35">
@@ -11412,8 +11417,8 @@
         <v>11809</v>
       </c>
       <c r="F47" s="26">
-        <f t="shared" si="62"/>
-        <v>88.239538239538234</v>
+        <f t="shared" si="65"/>
+        <v>95.065944568333876</v>
       </c>
       <c r="G47" s="91">
         <f t="shared" si="66"/>
@@ -11424,15 +11429,15 @@
         <v>1</v>
       </c>
       <c r="I47" s="36">
+        <f t="shared" si="62"/>
+        <v>-7676</v>
+      </c>
+      <c r="J47" s="13">
         <f t="shared" si="63"/>
-        <v>-7676</v>
-      </c>
-      <c r="J47" s="13">
+        <v>2655</v>
+      </c>
+      <c r="K47" s="23">
         <f t="shared" si="64"/>
-        <v>2655</v>
-      </c>
-      <c r="K47" s="23">
-        <f t="shared" si="65"/>
         <v>11809</v>
       </c>
       <c r="L47" s="36">
@@ -11485,8 +11490,8 @@
         <v>15602</v>
       </c>
       <c r="F48" s="24">
-        <f t="shared" si="62"/>
-        <v>88.239538239538234</v>
+        <f t="shared" si="65"/>
+        <v>95.065944568333876</v>
       </c>
       <c r="G48" s="92">
         <f t="shared" si="66"/>
@@ -11497,15 +11502,15 @@
         <v>1</v>
       </c>
       <c r="I48" s="35">
+        <f t="shared" si="62"/>
+        <v>-10873</v>
+      </c>
+      <c r="J48" s="25">
         <f t="shared" si="63"/>
-        <v>-10873</v>
-      </c>
-      <c r="J48" s="25">
+        <v>2026</v>
+      </c>
+      <c r="K48" s="24">
         <f t="shared" si="64"/>
-        <v>2026</v>
-      </c>
-      <c r="K48" s="24">
-        <f t="shared" si="65"/>
         <v>15602</v>
       </c>
       <c r="L48" s="35">
@@ -11558,8 +11563,8 @@
         <v>20610</v>
       </c>
       <c r="F49" s="26">
-        <f t="shared" si="62"/>
-        <v>88.239538239538234</v>
+        <f t="shared" si="65"/>
+        <v>95.065944568333876</v>
       </c>
       <c r="G49" s="91">
         <f t="shared" si="66"/>
@@ -11570,15 +11575,15 @@
         <v>1</v>
       </c>
       <c r="I49" s="18">
+        <f t="shared" si="62"/>
+        <v>-15311</v>
+      </c>
+      <c r="J49" s="22">
         <f t="shared" si="63"/>
-        <v>-15311</v>
-      </c>
-      <c r="J49" s="22">
+        <v>1409</v>
+      </c>
+      <c r="K49" s="26">
         <f t="shared" si="64"/>
-        <v>1409</v>
-      </c>
-      <c r="K49" s="26">
-        <f t="shared" si="65"/>
         <v>20610</v>
       </c>
       <c r="L49" s="18">
@@ -11631,8 +11636,8 @@
         <v>27223</v>
       </c>
       <c r="F50" s="24">
-        <f t="shared" si="62"/>
-        <v>88.239538239538234</v>
+        <f t="shared" si="65"/>
+        <v>95.065944568333876</v>
       </c>
       <c r="G50" s="92">
         <f t="shared" si="66"/>
@@ -11643,15 +11648,15 @@
         <v>1</v>
       </c>
       <c r="I50" s="35">
+        <f t="shared" si="62"/>
+        <v>-21451</v>
+      </c>
+      <c r="J50" s="25">
         <f t="shared" si="63"/>
-        <v>-21451</v>
-      </c>
-      <c r="J50" s="25">
+        <v>873</v>
+      </c>
+      <c r="K50" s="24">
         <f t="shared" si="64"/>
-        <v>873</v>
-      </c>
-      <c r="K50" s="24">
-        <f t="shared" si="65"/>
         <v>27223</v>
       </c>
       <c r="L50" s="35">
@@ -11704,8 +11709,8 @@
         <v>35956</v>
       </c>
       <c r="F51" s="26">
-        <f t="shared" si="62"/>
-        <v>88.239538239538234</v>
+        <f t="shared" si="65"/>
+        <v>95.065944568333876</v>
       </c>
       <c r="G51" s="91">
         <f t="shared" si="66"/>
@@ -11716,15 +11721,15 @@
         <v>1</v>
       </c>
       <c r="I51" s="18">
+        <f t="shared" si="62"/>
+        <v>-29865</v>
+      </c>
+      <c r="J51" s="22">
         <f t="shared" si="63"/>
-        <v>-29865</v>
-      </c>
-      <c r="J51" s="22">
+        <v>471</v>
+      </c>
+      <c r="K51" s="26">
         <f t="shared" si="64"/>
-        <v>471</v>
-      </c>
-      <c r="K51" s="26">
-        <f t="shared" si="65"/>
         <v>35956</v>
       </c>
       <c r="L51" s="18">
@@ -11777,8 +11782,8 @@
         <v>47489</v>
       </c>
       <c r="F52" s="24">
-        <f t="shared" si="62"/>
-        <v>88.239538239538234</v>
+        <f t="shared" si="65"/>
+        <v>95.065944568333876</v>
       </c>
       <c r="G52" s="92">
         <f t="shared" si="66"/>
@@ -11789,15 +11794,15 @@
         <v>1</v>
       </c>
       <c r="I52" s="35">
+        <f t="shared" si="62"/>
+        <v>-41253</v>
+      </c>
+      <c r="J52" s="4">
         <f t="shared" si="63"/>
-        <v>-41253</v>
-      </c>
-      <c r="J52" s="4">
+        <v>216</v>
+      </c>
+      <c r="K52" s="24">
         <f t="shared" si="64"/>
-        <v>216</v>
-      </c>
-      <c r="K52" s="24">
-        <f t="shared" si="65"/>
         <v>47489</v>
       </c>
       <c r="L52" s="35">
@@ -11850,8 +11855,8 @@
         <v>62721</v>
       </c>
       <c r="F53" s="23">
-        <f t="shared" si="62"/>
-        <v>88.239538239538234</v>
+        <f t="shared" si="65"/>
+        <v>95.065944568333876</v>
       </c>
       <c r="G53" s="91">
         <f t="shared" si="66"/>
@@ -11862,15 +11867,15 @@
         <v>1</v>
       </c>
       <c r="I53" s="8">
+        <f t="shared" si="62"/>
+        <v>-56497</v>
+      </c>
+      <c r="J53" s="3">
         <f t="shared" si="63"/>
-        <v>-56497</v>
-      </c>
-      <c r="J53" s="3">
+        <v>82</v>
+      </c>
+      <c r="K53" s="37">
         <f t="shared" si="64"/>
-        <v>82</v>
-      </c>
-      <c r="K53" s="37">
-        <f t="shared" si="65"/>
         <v>62721</v>
       </c>
       <c r="L53" s="8">
@@ -11923,8 +11928,8 @@
         <v>82839</v>
       </c>
       <c r="F54" s="24">
-        <f t="shared" si="62"/>
-        <v>88.239538239538234</v>
+        <f t="shared" si="65"/>
+        <v>95.065944568333876</v>
       </c>
       <c r="G54" s="92">
         <f t="shared" si="66"/>
@@ -11935,15 +11940,15 @@
         <v>1</v>
       </c>
       <c r="I54" s="7">
+        <f t="shared" si="62"/>
+        <v>-76751</v>
+      </c>
+      <c r="J54" s="2">
         <f t="shared" si="63"/>
-        <v>-76751</v>
-      </c>
-      <c r="J54" s="2">
+        <v>25</v>
+      </c>
+      <c r="K54" s="34">
         <f t="shared" si="64"/>
-        <v>25</v>
-      </c>
-      <c r="K54" s="34">
-        <f t="shared" si="65"/>
         <v>82839</v>
       </c>
       <c r="L54" s="7">
@@ -11996,8 +12001,8 @@
         <v>109410</v>
       </c>
       <c r="F55" s="23">
-        <f t="shared" si="62"/>
-        <v>88.239538239538234</v>
+        <f t="shared" si="65"/>
+        <v>95.065944568333876</v>
       </c>
       <c r="G55" s="91">
         <f t="shared" si="66"/>
@@ -12008,15 +12013,15 @@
         <v>1</v>
       </c>
       <c r="I55" s="8">
+        <f t="shared" si="62"/>
+        <v>-103556</v>
+      </c>
+      <c r="J55" s="3">
         <f t="shared" si="63"/>
-        <v>-103556</v>
-      </c>
-      <c r="J55" s="3">
+        <v>6</v>
+      </c>
+      <c r="K55" s="37">
         <f t="shared" si="64"/>
-        <v>6</v>
-      </c>
-      <c r="K55" s="37">
-        <f t="shared" si="65"/>
         <v>109410</v>
       </c>
       <c r="L55" s="8">
@@ -12069,8 +12074,8 @@
         <v>144504</v>
       </c>
       <c r="F56" s="24">
-        <f t="shared" si="62"/>
-        <v>88.239538239538234</v>
+        <f t="shared" si="65"/>
+        <v>95.065944568333876</v>
       </c>
       <c r="G56" s="92">
         <f t="shared" si="66"/>
@@ -12081,15 +12086,15 @@
         <v>1</v>
       </c>
       <c r="I56" s="7">
+        <f t="shared" si="62"/>
+        <v>-138978</v>
+      </c>
+      <c r="J56" s="2">
         <f t="shared" si="63"/>
-        <v>-138978</v>
-      </c>
-      <c r="J56" s="2">
+        <v>1</v>
+      </c>
+      <c r="K56" s="34">
         <f t="shared" si="64"/>
-        <v>1</v>
-      </c>
-      <c r="K56" s="34">
-        <f t="shared" si="65"/>
         <v>144504</v>
       </c>
       <c r="L56" s="7">
@@ -12142,8 +12147,8 @@
         <v>190854</v>
       </c>
       <c r="F57" s="23">
-        <f t="shared" si="62"/>
-        <v>88.239538239538234</v>
+        <f t="shared" si="65"/>
+        <v>95.065944568333876</v>
       </c>
       <c r="G57" s="91">
         <f t="shared" si="66"/>
@@ -12154,15 +12159,15 @@
         <v>1</v>
       </c>
       <c r="I57" s="8">
+        <f t="shared" si="62"/>
+        <v>-185767</v>
+      </c>
+      <c r="J57" s="3">
         <f t="shared" si="63"/>
-        <v>-185767</v>
-      </c>
-      <c r="J57" s="3">
+        <v>0</v>
+      </c>
+      <c r="K57" s="37">
         <f t="shared" si="64"/>
-        <v>0</v>
-      </c>
-      <c r="K57" s="37">
-        <f t="shared" si="65"/>
         <v>190854</v>
       </c>
       <c r="L57" s="8">
@@ -12215,8 +12220,8 @@
         <v>252072</v>
       </c>
       <c r="F58" s="24">
-        <f t="shared" si="62"/>
-        <v>88.239538239538234</v>
+        <f t="shared" si="65"/>
+        <v>95.065944568333876</v>
       </c>
       <c r="G58" s="92">
         <f t="shared" si="66"/>
@@ -12227,15 +12232,15 @@
         <v>1</v>
       </c>
       <c r="I58" s="7">
+        <f t="shared" si="62"/>
+        <v>-247563</v>
+      </c>
+      <c r="J58" s="2">
         <f t="shared" si="63"/>
-        <v>-247563</v>
-      </c>
-      <c r="J58" s="2">
+        <v>0</v>
+      </c>
+      <c r="K58" s="34">
         <f t="shared" si="64"/>
-        <v>0</v>
-      </c>
-      <c r="K58" s="34">
-        <f t="shared" si="65"/>
         <v>252072</v>
       </c>
       <c r="L58" s="7">
@@ -12288,8 +12293,8 @@
         <v>332926</v>
       </c>
       <c r="F59" s="23">
-        <f t="shared" si="62"/>
-        <v>88.239538239538234</v>
+        <f t="shared" si="65"/>
+        <v>95.065944568333876</v>
       </c>
       <c r="G59" s="91">
         <f t="shared" si="66"/>
@@ -12361,8 +12366,8 @@
         <v>439714</v>
       </c>
       <c r="F60" s="24">
-        <f t="shared" si="62"/>
-        <v>88.239538239538234</v>
+        <f t="shared" si="65"/>
+        <v>95.065944568333876</v>
       </c>
       <c r="G60" s="92">
         <f t="shared" si="66"/>
@@ -12434,8 +12439,8 @@
         <v>580755</v>
       </c>
       <c r="F61" s="23">
-        <f t="shared" si="62"/>
-        <v>88.239538239538234</v>
+        <f t="shared" si="65"/>
+        <v>95.065944568333876</v>
       </c>
       <c r="G61" s="91">
         <f t="shared" si="66"/>
@@ -12507,8 +12512,8 @@
         <v>767037</v>
       </c>
       <c r="F62" s="24">
-        <f t="shared" si="62"/>
-        <v>88.239538239538234</v>
+        <f t="shared" si="65"/>
+        <v>95.065944568333876</v>
       </c>
       <c r="G62" s="92">
         <f t="shared" si="66"/>
@@ -12580,8 +12585,8 @@
         <v>1013070</v>
       </c>
       <c r="F63" s="23">
-        <f t="shared" si="62"/>
-        <v>88.239538239538234</v>
+        <f t="shared" si="65"/>
+        <v>95.065944568333876</v>
       </c>
       <c r="G63" s="91">
         <f t="shared" si="66"/>
@@ -12653,8 +12658,8 @@
         <v>1338020</v>
       </c>
       <c r="F64" s="24">
-        <f t="shared" si="62"/>
-        <v>88.239538239538234</v>
+        <f t="shared" si="65"/>
+        <v>95.065944568333876</v>
       </c>
       <c r="G64" s="92">
         <f t="shared" si="66"/>
@@ -12726,8 +12731,8 @@
         <v>1767201</v>
       </c>
       <c r="F65" s="23">
-        <f t="shared" si="62"/>
-        <v>88.239538239538234</v>
+        <f t="shared" si="65"/>
+        <v>95.065944568333876</v>
       </c>
       <c r="G65" s="91">
         <f t="shared" si="66"/>
@@ -12799,8 +12804,8 @@
         <v>2334045</v>
       </c>
       <c r="F66" s="24">
-        <f t="shared" si="62"/>
-        <v>88.239538239538234</v>
+        <f t="shared" si="65"/>
+        <v>95.065944568333876</v>
       </c>
       <c r="G66" s="92">
         <f t="shared" si="66"/>
@@ -12872,8 +12877,8 @@
         <v>3082709</v>
       </c>
       <c r="F67" s="23">
-        <f t="shared" si="62"/>
-        <v>88.239538239538234</v>
+        <f t="shared" si="65"/>
+        <v>95.065944568333876</v>
       </c>
       <c r="G67" s="91">
         <f t="shared" si="66"/>
@@ -12945,8 +12950,8 @@
         <v>4071514</v>
       </c>
       <c r="F68" s="24">
-        <f t="shared" si="62"/>
-        <v>88.239538239538234</v>
+        <f t="shared" si="65"/>
+        <v>95.065944568333876</v>
       </c>
       <c r="G68" s="92">
         <f t="shared" ref="G68:G99" si="79">D68/U$3</f>
@@ -13018,8 +13023,8 @@
         <v>5377486</v>
       </c>
       <c r="F69" s="23">
-        <f t="shared" si="62"/>
-        <v>88.239538239538234</v>
+        <f t="shared" si="65"/>
+        <v>95.065944568333876</v>
       </c>
       <c r="G69" s="91">
         <f t="shared" si="79"/>
@@ -13091,8 +13096,8 @@
         <v>7102360</v>
       </c>
       <c r="F70" s="24">
-        <f t="shared" si="62"/>
-        <v>88.239538239538234</v>
+        <f t="shared" si="65"/>
+        <v>95.065944568333876</v>
       </c>
       <c r="G70" s="92">
         <f t="shared" si="79"/>
@@ -13164,8 +13169,8 @@
         <v>9380502</v>
       </c>
       <c r="F71" s="23">
-        <f t="shared" si="62"/>
-        <v>88.239538239538234</v>
+        <f t="shared" si="65"/>
+        <v>95.065944568333876</v>
       </c>
       <c r="G71" s="91">
         <f t="shared" si="79"/>
@@ -13237,8 +13242,8 @@
         <v>12389377</v>
       </c>
       <c r="F72" s="24">
-        <f t="shared" si="62"/>
-        <v>88.239538239538234</v>
+        <f t="shared" si="65"/>
+        <v>95.065944568333876</v>
       </c>
       <c r="G72" s="92">
         <f t="shared" si="79"/>
@@ -13310,8 +13315,8 @@
         <v>16363374</v>
       </c>
       <c r="F73" s="23">
-        <f t="shared" si="62"/>
-        <v>88.239538239538234</v>
+        <f t="shared" si="65"/>
+        <v>95.065944568333876</v>
       </c>
       <c r="G73" s="91">
         <f t="shared" si="79"/>
@@ -13383,8 +13388,8 @@
         <v>21612064</v>
       </c>
       <c r="F74" s="24">
-        <f t="shared" si="62"/>
-        <v>88.239538239538234</v>
+        <f t="shared" si="65"/>
+        <v>95.065944568333876</v>
       </c>
       <c r="G74" s="92">
         <f t="shared" si="79"/>
@@ -13456,8 +13461,8 @@
         <v>28544316</v>
       </c>
       <c r="F75" s="23">
-        <f t="shared" si="62"/>
-        <v>88.239538239538234</v>
+        <f t="shared" si="65"/>
+        <v>95.065944568333876</v>
       </c>
       <c r="G75" s="91">
         <f t="shared" si="79"/>
@@ -13529,8 +13534,8 @@
         <v>37700147</v>
       </c>
       <c r="F76" s="24">
-        <f t="shared" si="62"/>
-        <v>88.239538239538234</v>
+        <f t="shared" si="65"/>
+        <v>95.065944568333876</v>
       </c>
       <c r="G76" s="92">
         <f t="shared" si="79"/>
@@ -13602,8 +13607,8 @@
         <v>49792788</v>
       </c>
       <c r="F77" s="23">
-        <f t="shared" si="62"/>
-        <v>88.239538239538234</v>
+        <f t="shared" si="65"/>
+        <v>95.065944568333876</v>
       </c>
       <c r="G77" s="91">
         <f t="shared" si="79"/>
@@ -13675,8 +13680,8 @@
         <v>65764246</v>
       </c>
       <c r="F78" s="24">
-        <f t="shared" si="62"/>
-        <v>88.239538239538234</v>
+        <f t="shared" si="65"/>
+        <v>95.065944568333876</v>
       </c>
       <c r="G78" s="92">
         <f t="shared" si="79"/>
@@ -13748,8 +13753,8 @@
         <v>86858685</v>
       </c>
       <c r="F79" s="23">
-        <f t="shared" si="62"/>
-        <v>88.239538239538234</v>
+        <f t="shared" si="65"/>
+        <v>95.065944568333876</v>
       </c>
       <c r="G79" s="91">
         <f t="shared" si="79"/>
@@ -13821,8 +13826,8 @@
         <v>114719344</v>
       </c>
       <c r="F80" s="24">
-        <f t="shared" si="62"/>
-        <v>88.239538239538234</v>
+        <f t="shared" si="65"/>
+        <v>95.065944568333876</v>
       </c>
       <c r="G80" s="92">
         <f t="shared" si="79"/>
@@ -13894,8 +13899,8 @@
         <v>151516545</v>
       </c>
       <c r="F81" s="23">
-        <f t="shared" si="62"/>
-        <v>88.239538239538234</v>
+        <f t="shared" si="65"/>
+        <v>95.065944568333876</v>
       </c>
       <c r="G81" s="91">
         <f t="shared" si="79"/>
@@ -13967,8 +13972,8 @@
         <v>200116760</v>
       </c>
       <c r="F82" s="24">
-        <f t="shared" si="62"/>
-        <v>88.239538239538234</v>
+        <f t="shared" si="65"/>
+        <v>95.065944568333876</v>
       </c>
       <c r="G82" s="92">
         <f t="shared" si="79"/>
@@ -14040,8 +14045,8 @@
         <v>264305906</v>
       </c>
       <c r="F83" s="23">
-        <f t="shared" si="62"/>
-        <v>88.239538239538234</v>
+        <f t="shared" si="65"/>
+        <v>95.065944568333876</v>
       </c>
       <c r="G83" s="91">
         <f t="shared" si="79"/>
@@ -14113,8 +14118,8 @@
         <v>349084265</v>
       </c>
       <c r="F84" s="24">
-        <f t="shared" si="62"/>
-        <v>88.239538239538234</v>
+        <f t="shared" si="65"/>
+        <v>95.065944568333876</v>
       </c>
       <c r="G84" s="92">
         <f t="shared" si="79"/>
@@ -14186,8 +14191,8 @@
         <v>461056001</v>
       </c>
       <c r="F85" s="23">
-        <f t="shared" si="62"/>
-        <v>88.239538239538234</v>
+        <f t="shared" si="65"/>
+        <v>95.065944568333876</v>
       </c>
       <c r="G85" s="91">
         <f t="shared" si="79"/>
@@ -14259,8 +14264,8 @@
         <v>608943620</v>
       </c>
       <c r="F86" s="24">
-        <f t="shared" si="62"/>
-        <v>88.239538239538234</v>
+        <f t="shared" si="65"/>
+        <v>95.065944568333876</v>
       </c>
       <c r="G86" s="92">
         <f t="shared" si="79"/>
@@ -14332,8 +14337,8 @@
         <v>804267446</v>
       </c>
       <c r="F87" s="23">
-        <f t="shared" si="62"/>
-        <v>88.239538239538234</v>
+        <f t="shared" si="65"/>
+        <v>95.065944568333876</v>
       </c>
       <c r="G87" s="91">
         <f t="shared" si="79"/>
@@ -14405,8 +14410,8 @@
         <v>1062243045</v>
       </c>
       <c r="F88" s="24">
-        <f t="shared" si="62"/>
-        <v>88.239538239538234</v>
+        <f t="shared" si="65"/>
+        <v>95.065944568333876</v>
       </c>
       <c r="G88" s="92">
         <f t="shared" si="79"/>
@@ -14478,8 +14483,8 @@
         <v>1402966504</v>
       </c>
       <c r="F89" s="23">
-        <f t="shared" si="62"/>
-        <v>88.239538239538234</v>
+        <f t="shared" si="65"/>
+        <v>95.065944568333876</v>
       </c>
       <c r="G89" s="91">
         <f t="shared" si="79"/>
@@ -14551,8 +14556,8 @@
         <v>1852979900</v>
       </c>
       <c r="F90" s="24">
-        <f t="shared" si="62"/>
-        <v>88.239538239538234</v>
+        <f t="shared" si="65"/>
+        <v>95.065944568333876</v>
       </c>
       <c r="G90" s="92">
         <f t="shared" si="79"/>
@@ -14624,8 +14629,8 @@
         <v>2447338907</v>
       </c>
       <c r="F91" s="23">
-        <f t="shared" si="62"/>
-        <v>88.239538239538234</v>
+        <f t="shared" si="65"/>
+        <v>95.065944568333876</v>
       </c>
       <c r="G91" s="91">
         <f t="shared" si="79"/>
@@ -14697,8 +14702,8 @@
         <v>3232343602</v>
       </c>
       <c r="F92" s="24">
-        <f t="shared" si="62"/>
-        <v>88.239538239538234</v>
+        <f t="shared" si="65"/>
+        <v>95.065944568333876</v>
       </c>
       <c r="G92" s="92">
         <f t="shared" si="79"/>
@@ -14770,8 +14775,8 @@
         <v>4269145206</v>
       </c>
       <c r="F93" s="23">
-        <f t="shared" si="62"/>
-        <v>88.239538239538234</v>
+        <f t="shared" si="65"/>
+        <v>95.065944568333876</v>
       </c>
       <c r="G93" s="91">
         <f t="shared" si="79"/>
@@ -14843,8 +14848,8 @@
         <v>5638509712</v>
       </c>
       <c r="F94" s="24">
-        <f t="shared" si="62"/>
-        <v>88.239538239538234</v>
+        <f t="shared" si="65"/>
+        <v>95.065944568333876</v>
       </c>
       <c r="G94" s="92">
         <f t="shared" si="79"/>
@@ -14916,8 +14921,8 @@
         <v>7447109488</v>
       </c>
       <c r="F95" s="23">
-        <f t="shared" si="62"/>
-        <v>88.239538239538234</v>
+        <f t="shared" si="65"/>
+        <v>95.065944568333876</v>
       </c>
       <c r="G95" s="91">
         <f t="shared" si="79"/>
@@ -14989,8 +14994,8 @@
         <v>9835832971</v>
       </c>
       <c r="F96" s="24">
-        <f t="shared" si="62"/>
-        <v>88.239538239538234</v>
+        <f t="shared" si="65"/>
+        <v>95.065944568333876</v>
       </c>
       <c r="G96" s="92">
         <f t="shared" si="79"/>
@@ -15062,8 +15067,8 @@
         <v>12990759755</v>
       </c>
       <c r="F97" s="23">
-        <f t="shared" ref="F97:F160" si="93">D97*(F$31/D$31)</f>
-        <v>88.239538239538234</v>
+        <f t="shared" si="65"/>
+        <v>95.065944568333876</v>
       </c>
       <c r="G97" s="91">
         <f t="shared" si="79"/>
@@ -15135,8 +15140,8 @@
         <v>17157656044</v>
       </c>
       <c r="F98" s="24">
-        <f t="shared" si="93"/>
-        <v>88.239538239538234</v>
+        <f t="shared" ref="F98:F161" si="93">D98*(F$32/D$32)</f>
+        <v>95.065944568333876</v>
       </c>
       <c r="G98" s="92">
         <f t="shared" si="79"/>
@@ -15209,7 +15214,7 @@
       </c>
       <c r="F99" s="23">
         <f t="shared" si="93"/>
-        <v>88.239538239538234</v>
+        <v>95.065944568333876</v>
       </c>
       <c r="G99" s="91">
         <f t="shared" si="79"/>
@@ -15282,7 +15287,7 @@
       </c>
       <c r="F100" s="24">
         <f t="shared" si="93"/>
-        <v>88.239538239538234</v>
+        <v>95.065944568333876</v>
       </c>
       <c r="G100" s="92">
         <f t="shared" ref="G100:G131" si="94">D100/U$3</f>
@@ -15355,7 +15360,7 @@
       </c>
       <c r="F101" s="23">
         <f t="shared" si="93"/>
-        <v>88.239538239538234</v>
+        <v>95.065944568333876</v>
       </c>
       <c r="G101" s="91">
         <f t="shared" si="94"/>
@@ -15428,7 +15433,7 @@
       </c>
       <c r="F102" s="24">
         <f t="shared" si="93"/>
-        <v>88.239538239538234</v>
+        <v>95.065944568333876</v>
       </c>
       <c r="G102" s="92">
         <f t="shared" si="94"/>
@@ -15501,7 +15506,7 @@
       </c>
       <c r="F103" s="23">
         <f t="shared" si="93"/>
-        <v>88.239538239538234</v>
+        <v>95.065944568333876</v>
       </c>
       <c r="G103" s="91">
         <f t="shared" si="94"/>
@@ -15574,7 +15579,7 @@
       </c>
       <c r="F104" s="24">
         <f t="shared" si="93"/>
-        <v>88.239538239538234</v>
+        <v>95.065944568333876</v>
       </c>
       <c r="G104" s="92">
         <f t="shared" si="94"/>
@@ -15647,7 +15652,7 @@
       </c>
       <c r="F105" s="23">
         <f t="shared" si="93"/>
-        <v>88.239538239538234</v>
+        <v>95.065944568333876</v>
       </c>
       <c r="G105" s="91">
         <f t="shared" si="94"/>
@@ -15720,7 +15725,7 @@
       </c>
       <c r="F106" s="24">
         <f t="shared" si="93"/>
-        <v>88.239538239538234</v>
+        <v>95.065944568333876</v>
       </c>
       <c r="G106" s="92">
         <f t="shared" si="94"/>
@@ -15793,7 +15798,7 @@
       </c>
       <c r="F107" s="23">
         <f t="shared" si="93"/>
-        <v>88.239538239538234</v>
+        <v>95.065944568333876</v>
       </c>
       <c r="G107" s="91">
         <f t="shared" si="94"/>
@@ -15866,7 +15871,7 @@
       </c>
       <c r="F108" s="24">
         <f t="shared" si="93"/>
-        <v>88.239538239538234</v>
+        <v>95.065944568333876</v>
       </c>
       <c r="G108" s="92">
         <f t="shared" si="94"/>
@@ -15939,7 +15944,7 @@
       </c>
       <c r="F109" s="23">
         <f t="shared" si="93"/>
-        <v>88.239538239538234</v>
+        <v>95.065944568333876</v>
       </c>
       <c r="G109" s="91">
         <f t="shared" si="94"/>
@@ -16012,7 +16017,7 @@
       </c>
       <c r="F110" s="24">
         <f t="shared" si="93"/>
-        <v>88.239538239538234</v>
+        <v>95.065944568333876</v>
       </c>
       <c r="G110" s="92">
         <f t="shared" si="94"/>
@@ -16085,7 +16090,7 @@
       </c>
       <c r="F111" s="23">
         <f t="shared" si="93"/>
-        <v>88.239538239538234</v>
+        <v>95.065944568333876</v>
       </c>
       <c r="G111" s="91">
         <f t="shared" si="94"/>
@@ -16158,7 +16163,7 @@
       </c>
       <c r="F112" s="24">
         <f t="shared" si="93"/>
-        <v>88.239538239538234</v>
+        <v>95.065944568333876</v>
       </c>
       <c r="G112" s="92">
         <f t="shared" si="94"/>
@@ -16231,7 +16236,7 @@
       </c>
       <c r="F113" s="23">
         <f t="shared" si="93"/>
-        <v>88.239538239538234</v>
+        <v>95.065944568333876</v>
       </c>
       <c r="G113" s="91">
         <f t="shared" si="94"/>
@@ -16304,7 +16309,7 @@
       </c>
       <c r="F114" s="24">
         <f t="shared" si="93"/>
-        <v>88.239538239538234</v>
+        <v>95.065944568333876</v>
       </c>
       <c r="G114" s="92">
         <f t="shared" si="94"/>
@@ -16377,7 +16382,7 @@
       </c>
       <c r="F115" s="23">
         <f t="shared" si="93"/>
-        <v>88.239538239538234</v>
+        <v>95.065944568333876</v>
       </c>
       <c r="G115" s="91">
         <f t="shared" si="94"/>
@@ -16450,7 +16455,7 @@
       </c>
       <c r="F116" s="24">
         <f t="shared" si="93"/>
-        <v>88.239538239538234</v>
+        <v>95.065944568333876</v>
       </c>
       <c r="G116" s="92">
         <f t="shared" si="94"/>
@@ -16523,7 +16528,7 @@
       </c>
       <c r="F117" s="23">
         <f t="shared" si="93"/>
-        <v>88.239538239538234</v>
+        <v>95.065944568333876</v>
       </c>
       <c r="G117" s="91">
         <f t="shared" si="94"/>
@@ -16596,7 +16601,7 @@
       </c>
       <c r="F118" s="24">
         <f t="shared" si="93"/>
-        <v>88.239538239538234</v>
+        <v>95.065944568333876</v>
       </c>
       <c r="G118" s="92">
         <f t="shared" si="94"/>
@@ -16669,7 +16674,7 @@
       </c>
       <c r="F119" s="23">
         <f t="shared" si="93"/>
-        <v>88.239538239538234</v>
+        <v>95.065944568333876</v>
       </c>
       <c r="G119" s="91">
         <f t="shared" si="94"/>
@@ -16742,7 +16747,7 @@
       </c>
       <c r="F120" s="24">
         <f t="shared" si="93"/>
-        <v>88.239538239538234</v>
+        <v>95.065944568333876</v>
       </c>
       <c r="G120" s="92">
         <f t="shared" si="94"/>
@@ -16815,7 +16820,7 @@
       </c>
       <c r="F121" s="23">
         <f t="shared" si="93"/>
-        <v>88.239538239538234</v>
+        <v>95.065944568333876</v>
       </c>
       <c r="G121" s="91">
         <f t="shared" si="94"/>
@@ -16888,7 +16893,7 @@
       </c>
       <c r="F122" s="24">
         <f t="shared" si="93"/>
-        <v>88.239538239538234</v>
+        <v>95.065944568333876</v>
       </c>
       <c r="G122" s="92">
         <f t="shared" si="94"/>
@@ -16961,7 +16966,7 @@
       </c>
       <c r="F123" s="23">
         <f t="shared" si="93"/>
-        <v>88.239538239538234</v>
+        <v>95.065944568333876</v>
       </c>
       <c r="G123" s="91">
         <f t="shared" si="94"/>
@@ -17034,7 +17039,7 @@
       </c>
       <c r="F124" s="24">
         <f t="shared" si="93"/>
-        <v>88.239538239538234</v>
+        <v>95.065944568333876</v>
       </c>
       <c r="G124" s="92">
         <f t="shared" si="94"/>
@@ -17107,7 +17112,7 @@
       </c>
       <c r="F125" s="23">
         <f t="shared" si="93"/>
-        <v>88.239538239538234</v>
+        <v>95.065944568333876</v>
       </c>
       <c r="G125" s="91">
         <f t="shared" si="94"/>
@@ -17180,7 +17185,7 @@
       </c>
       <c r="F126" s="24">
         <f t="shared" si="93"/>
-        <v>88.239538239538234</v>
+        <v>95.065944568333876</v>
       </c>
       <c r="G126" s="92">
         <f t="shared" si="94"/>
@@ -17253,7 +17258,7 @@
       </c>
       <c r="F127" s="23">
         <f t="shared" si="93"/>
-        <v>88.239538239538234</v>
+        <v>95.065944568333876</v>
       </c>
       <c r="G127" s="91">
         <f t="shared" si="94"/>
@@ -17326,7 +17331,7 @@
       </c>
       <c r="F128" s="24">
         <f t="shared" si="93"/>
-        <v>88.239538239538234</v>
+        <v>95.065944568333876</v>
       </c>
       <c r="G128" s="92">
         <f t="shared" si="94"/>
@@ -17399,7 +17404,7 @@
       </c>
       <c r="F129" s="23">
         <f t="shared" si="93"/>
-        <v>88.239538239538234</v>
+        <v>95.065944568333876</v>
       </c>
       <c r="G129" s="91">
         <f t="shared" si="94"/>
@@ -17472,7 +17477,7 @@
       </c>
       <c r="F130" s="24">
         <f t="shared" si="93"/>
-        <v>88.239538239538234</v>
+        <v>95.065944568333876</v>
       </c>
       <c r="G130" s="92">
         <f t="shared" si="94"/>
@@ -17545,7 +17550,7 @@
       </c>
       <c r="F131" s="23">
         <f t="shared" si="93"/>
-        <v>88.239538239538234</v>
+        <v>95.065944568333876</v>
       </c>
       <c r="G131" s="91">
         <f t="shared" si="94"/>
@@ -17618,7 +17623,7 @@
       </c>
       <c r="F132" s="24">
         <f t="shared" si="93"/>
-        <v>88.239538239538234</v>
+        <v>95.065944568333876</v>
       </c>
       <c r="G132" s="92">
         <f t="shared" ref="G132:G163" si="107">D132/U$3</f>
@@ -17691,7 +17696,7 @@
       </c>
       <c r="F133" s="23">
         <f t="shared" si="93"/>
-        <v>88.239538239538234</v>
+        <v>95.065944568333876</v>
       </c>
       <c r="G133" s="91">
         <f t="shared" si="107"/>
@@ -17764,7 +17769,7 @@
       </c>
       <c r="F134" s="24">
         <f t="shared" si="93"/>
-        <v>88.239538239538234</v>
+        <v>95.065944568333876</v>
       </c>
       <c r="G134" s="92">
         <f t="shared" si="107"/>
@@ -17837,7 +17842,7 @@
       </c>
       <c r="F135" s="23">
         <f t="shared" si="93"/>
-        <v>88.239538239538234</v>
+        <v>95.065944568333876</v>
       </c>
       <c r="G135" s="91">
         <f t="shared" si="107"/>
@@ -17910,7 +17915,7 @@
       </c>
       <c r="F136" s="24">
         <f t="shared" si="93"/>
-        <v>88.239538239538234</v>
+        <v>95.065944568333876</v>
       </c>
       <c r="G136" s="92">
         <f t="shared" si="107"/>
@@ -17983,7 +17988,7 @@
       </c>
       <c r="F137" s="23">
         <f t="shared" si="93"/>
-        <v>88.239538239538234</v>
+        <v>95.065944568333876</v>
       </c>
       <c r="G137" s="91">
         <f t="shared" si="107"/>
@@ -18056,7 +18061,7 @@
       </c>
       <c r="F138" s="24">
         <f t="shared" si="93"/>
-        <v>88.239538239538234</v>
+        <v>95.065944568333876</v>
       </c>
       <c r="G138" s="92">
         <f t="shared" si="107"/>
@@ -18129,7 +18134,7 @@
       </c>
       <c r="F139" s="23">
         <f t="shared" si="93"/>
-        <v>88.239538239538234</v>
+        <v>95.065944568333876</v>
       </c>
       <c r="G139" s="91">
         <f t="shared" si="107"/>
@@ -18202,7 +18207,7 @@
       </c>
       <c r="F140" s="24">
         <f t="shared" si="93"/>
-        <v>88.239538239538234</v>
+        <v>95.065944568333876</v>
       </c>
       <c r="G140" s="92">
         <f t="shared" si="107"/>
@@ -18275,7 +18280,7 @@
       </c>
       <c r="F141" s="23">
         <f t="shared" si="93"/>
-        <v>88.239538239538234</v>
+        <v>95.065944568333876</v>
       </c>
       <c r="G141" s="91">
         <f t="shared" si="107"/>
@@ -18348,7 +18353,7 @@
       </c>
       <c r="F142" s="24">
         <f t="shared" si="93"/>
-        <v>88.239538239538234</v>
+        <v>95.065944568333876</v>
       </c>
       <c r="G142" s="92">
         <f t="shared" si="107"/>
@@ -18421,7 +18426,7 @@
       </c>
       <c r="F143" s="23">
         <f t="shared" si="93"/>
-        <v>88.239538239538234</v>
+        <v>95.065944568333876</v>
       </c>
       <c r="G143" s="91">
         <f t="shared" si="107"/>
@@ -18494,7 +18499,7 @@
       </c>
       <c r="F144" s="24">
         <f t="shared" si="93"/>
-        <v>88.239538239538234</v>
+        <v>95.065944568333876</v>
       </c>
       <c r="G144" s="92">
         <f t="shared" si="107"/>
@@ -18567,7 +18572,7 @@
       </c>
       <c r="F145" s="23">
         <f t="shared" si="93"/>
-        <v>88.239538239538234</v>
+        <v>95.065944568333876</v>
       </c>
       <c r="G145" s="91">
         <f t="shared" si="107"/>
@@ -18640,7 +18645,7 @@
       </c>
       <c r="F146" s="24">
         <f t="shared" si="93"/>
-        <v>88.239538239538234</v>
+        <v>95.065944568333876</v>
       </c>
       <c r="G146" s="92">
         <f t="shared" si="107"/>
@@ -18713,7 +18718,7 @@
       </c>
       <c r="F147" s="23">
         <f t="shared" si="93"/>
-        <v>88.239538239538234</v>
+        <v>95.065944568333876</v>
       </c>
       <c r="G147" s="91">
         <f t="shared" si="107"/>
@@ -18786,7 +18791,7 @@
       </c>
       <c r="F148" s="24">
         <f t="shared" si="93"/>
-        <v>88.239538239538234</v>
+        <v>95.065944568333876</v>
       </c>
       <c r="G148" s="92">
         <f t="shared" si="107"/>
@@ -18859,7 +18864,7 @@
       </c>
       <c r="F149" s="23">
         <f t="shared" si="93"/>
-        <v>88.239538239538234</v>
+        <v>95.065944568333876</v>
       </c>
       <c r="G149" s="91">
         <f t="shared" si="107"/>
@@ -18932,7 +18937,7 @@
       </c>
       <c r="F150" s="24">
         <f t="shared" si="93"/>
-        <v>88.239538239538234</v>
+        <v>95.065944568333876</v>
       </c>
       <c r="G150" s="92">
         <f t="shared" si="107"/>
@@ -19005,7 +19010,7 @@
       </c>
       <c r="F151" s="23">
         <f t="shared" si="93"/>
-        <v>88.239538239538234</v>
+        <v>95.065944568333876</v>
       </c>
       <c r="G151" s="91">
         <f t="shared" si="107"/>
@@ -19078,7 +19083,7 @@
       </c>
       <c r="F152" s="24">
         <f t="shared" si="93"/>
-        <v>88.239538239538234</v>
+        <v>95.065944568333876</v>
       </c>
       <c r="G152" s="92">
         <f t="shared" si="107"/>
@@ -19151,7 +19156,7 @@
       </c>
       <c r="F153" s="23">
         <f t="shared" si="93"/>
-        <v>88.239538239538234</v>
+        <v>95.065944568333876</v>
       </c>
       <c r="G153" s="91">
         <f t="shared" si="107"/>
@@ -19224,7 +19229,7 @@
       </c>
       <c r="F154" s="24">
         <f t="shared" si="93"/>
-        <v>88.239538239538234</v>
+        <v>95.065944568333876</v>
       </c>
       <c r="G154" s="92">
         <f t="shared" si="107"/>
@@ -19297,7 +19302,7 @@
       </c>
       <c r="F155" s="23">
         <f t="shared" si="93"/>
-        <v>88.239538239538234</v>
+        <v>95.065944568333876</v>
       </c>
       <c r="G155" s="91">
         <f t="shared" si="107"/>
@@ -19370,7 +19375,7 @@
       </c>
       <c r="F156" s="24">
         <f t="shared" si="93"/>
-        <v>88.239538239538234</v>
+        <v>95.065944568333876</v>
       </c>
       <c r="G156" s="92">
         <f t="shared" si="107"/>
@@ -19443,7 +19448,7 @@
       </c>
       <c r="F157" s="23">
         <f t="shared" si="93"/>
-        <v>88.239538239538234</v>
+        <v>95.065944568333876</v>
       </c>
       <c r="G157" s="91">
         <f t="shared" si="107"/>
@@ -19516,7 +19521,7 @@
       </c>
       <c r="F158" s="24">
         <f t="shared" si="93"/>
-        <v>88.239538239538234</v>
+        <v>95.065944568333876</v>
       </c>
       <c r="G158" s="92">
         <f t="shared" si="107"/>
@@ -19589,7 +19594,7 @@
       </c>
       <c r="F159" s="23">
         <f t="shared" si="93"/>
-        <v>88.239538239538234</v>
+        <v>95.065944568333876</v>
       </c>
       <c r="G159" s="91">
         <f t="shared" si="107"/>
@@ -19662,7 +19667,7 @@
       </c>
       <c r="F160" s="24">
         <f t="shared" si="93"/>
-        <v>88.239538239538234</v>
+        <v>95.065944568333876</v>
       </c>
       <c r="G160" s="92">
         <f t="shared" si="107"/>
@@ -19734,8 +19739,8 @@
         <v>7.0199261849816461E+17</v>
       </c>
       <c r="F161" s="23">
-        <f t="shared" ref="F161:F204" si="121">D161*(F$31/D$31)</f>
-        <v>88.239538239538234</v>
+        <f t="shared" si="93"/>
+        <v>95.065944568333876</v>
       </c>
       <c r="G161" s="91">
         <f t="shared" si="107"/>
@@ -19807,8 +19812,8 @@
         <v>9.2716270032691904E+17</v>
       </c>
       <c r="F162" s="24">
-        <f t="shared" si="121"/>
-        <v>88.239538239538234</v>
+        <f t="shared" ref="F162:F204" si="121">D162*(F$32/D$32)</f>
+        <v>95.065944568333876</v>
       </c>
       <c r="G162" s="92">
         <f t="shared" si="107"/>
@@ -19881,7 +19886,7 @@
       </c>
       <c r="F163" s="23">
         <f t="shared" si="121"/>
-        <v>88.239538239538234</v>
+        <v>95.065944568333876</v>
       </c>
       <c r="G163" s="91">
         <f t="shared" si="107"/>
@@ -19954,7 +19959,7 @@
       </c>
       <c r="F164" s="24">
         <f t="shared" si="121"/>
-        <v>88.239538239538234</v>
+        <v>95.065944568333876</v>
       </c>
       <c r="G164" s="92">
         <f t="shared" ref="G164:G198" si="122">D164/U$3</f>
@@ -20027,7 +20032,7 @@
       </c>
       <c r="F165" s="23">
         <f t="shared" si="121"/>
-        <v>88.239538239538234</v>
+        <v>95.065944568333876</v>
       </c>
       <c r="G165" s="91">
         <f t="shared" si="122"/>
@@ -20100,7 +20105,7 @@
       </c>
       <c r="F166" s="24">
         <f t="shared" si="121"/>
-        <v>88.239538239538234</v>
+        <v>95.065944568333876</v>
       </c>
       <c r="G166" s="92">
         <f t="shared" si="122"/>
@@ -20173,7 +20178,7 @@
       </c>
       <c r="F167" s="23">
         <f t="shared" si="121"/>
-        <v>88.239538239538234</v>
+        <v>95.065944568333876</v>
       </c>
       <c r="G167" s="91">
         <f t="shared" si="122"/>
@@ -20246,7 +20251,7 @@
       </c>
       <c r="F168" s="24">
         <f t="shared" si="121"/>
-        <v>88.239538239538234</v>
+        <v>95.065944568333876</v>
       </c>
       <c r="G168" s="92">
         <f t="shared" si="122"/>
@@ -20319,7 +20324,7 @@
       </c>
       <c r="F169" s="23">
         <f t="shared" si="121"/>
-        <v>88.239538239538234</v>
+        <v>95.065944568333876</v>
       </c>
       <c r="G169" s="91">
         <f t="shared" si="122"/>
@@ -20392,7 +20397,7 @@
       </c>
       <c r="F170" s="24">
         <f t="shared" si="121"/>
-        <v>88.239538239538234</v>
+        <v>95.065944568333876</v>
       </c>
       <c r="G170" s="92">
         <f t="shared" si="122"/>
@@ -20465,7 +20470,7 @@
       </c>
       <c r="F171" s="23">
         <f t="shared" si="121"/>
-        <v>88.239538239538234</v>
+        <v>95.065944568333876</v>
       </c>
       <c r="G171" s="91">
         <f t="shared" si="122"/>
@@ -20538,7 +20543,7 @@
       </c>
       <c r="F172" s="24">
         <f t="shared" si="121"/>
-        <v>88.239538239538234</v>
+        <v>95.065944568333876</v>
       </c>
       <c r="G172" s="92">
         <f t="shared" si="122"/>
@@ -20611,7 +20616,7 @@
       </c>
       <c r="F173" s="23">
         <f t="shared" si="121"/>
-        <v>88.239538239538234</v>
+        <v>95.065944568333876</v>
       </c>
       <c r="G173" s="91">
         <f t="shared" si="122"/>
@@ -20684,7 +20689,7 @@
       </c>
       <c r="F174" s="24">
         <f t="shared" si="121"/>
-        <v>88.239538239538234</v>
+        <v>95.065944568333876</v>
       </c>
       <c r="G174" s="92">
         <f t="shared" si="122"/>
@@ -20757,7 +20762,7 @@
       </c>
       <c r="F175" s="23">
         <f t="shared" si="121"/>
-        <v>88.239538239538234</v>
+        <v>95.065944568333876</v>
       </c>
       <c r="G175" s="91">
         <f t="shared" si="122"/>
@@ -20830,7 +20835,7 @@
       </c>
       <c r="F176" s="24">
         <f t="shared" si="121"/>
-        <v>88.239538239538234</v>
+        <v>95.065944568333876</v>
       </c>
       <c r="G176" s="92">
         <f t="shared" si="122"/>
@@ -20903,7 +20908,7 @@
       </c>
       <c r="F177" s="23">
         <f t="shared" si="121"/>
-        <v>88.239538239538234</v>
+        <v>95.065944568333876</v>
       </c>
       <c r="G177" s="91">
         <f t="shared" si="122"/>
@@ -20976,7 +20981,7 @@
       </c>
       <c r="F178" s="24">
         <f t="shared" si="121"/>
-        <v>88.239538239538234</v>
+        <v>95.065944568333876</v>
       </c>
       <c r="G178" s="92">
         <f t="shared" si="122"/>
@@ -21049,7 +21054,7 @@
       </c>
       <c r="F179" s="23">
         <f t="shared" si="121"/>
-        <v>88.239538239538234</v>
+        <v>95.065944568333876</v>
       </c>
       <c r="G179" s="91">
         <f t="shared" si="122"/>
@@ -21122,7 +21127,7 @@
       </c>
       <c r="F180" s="24">
         <f t="shared" si="121"/>
-        <v>88.239538239538234</v>
+        <v>95.065944568333876</v>
       </c>
       <c r="G180" s="92">
         <f t="shared" si="122"/>
@@ -21195,7 +21200,7 @@
       </c>
       <c r="F181" s="23">
         <f t="shared" si="121"/>
-        <v>88.239538239538234</v>
+        <v>95.065944568333876</v>
       </c>
       <c r="G181" s="91">
         <f t="shared" si="122"/>
@@ -21268,7 +21273,7 @@
       </c>
       <c r="F182" s="24">
         <f t="shared" si="121"/>
-        <v>88.239538239538234</v>
+        <v>95.065944568333876</v>
       </c>
       <c r="G182" s="92">
         <f t="shared" si="122"/>
@@ -21341,7 +21346,7 @@
       </c>
       <c r="F183" s="23">
         <f t="shared" si="121"/>
-        <v>88.239538239538234</v>
+        <v>95.065944568333876</v>
       </c>
       <c r="G183" s="91">
         <f t="shared" si="122"/>
@@ -21414,7 +21419,7 @@
       </c>
       <c r="F184" s="24">
         <f t="shared" si="121"/>
-        <v>88.239538239538234</v>
+        <v>95.065944568333876</v>
       </c>
       <c r="G184" s="92">
         <f t="shared" si="122"/>
@@ -21487,7 +21492,7 @@
       </c>
       <c r="F185" s="23">
         <f t="shared" si="121"/>
-        <v>88.239538239538234</v>
+        <v>95.065944568333876</v>
       </c>
       <c r="G185" s="91">
         <f t="shared" si="122"/>
@@ -21560,7 +21565,7 @@
       </c>
       <c r="F186" s="24">
         <f t="shared" si="121"/>
-        <v>88.239538239538234</v>
+        <v>95.065944568333876</v>
       </c>
       <c r="G186" s="92">
         <f t="shared" si="122"/>
@@ -21633,7 +21638,7 @@
       </c>
       <c r="F187" s="23">
         <f t="shared" si="121"/>
-        <v>88.239538239538234</v>
+        <v>95.065944568333876</v>
       </c>
       <c r="G187" s="91">
         <f t="shared" si="122"/>
@@ -21706,7 +21711,7 @@
       </c>
       <c r="F188" s="24">
         <f t="shared" si="121"/>
-        <v>88.239538239538234</v>
+        <v>95.065944568333876</v>
       </c>
       <c r="G188" s="92">
         <f t="shared" si="122"/>
@@ -21779,7 +21784,7 @@
       </c>
       <c r="F189" s="23">
         <f t="shared" si="121"/>
-        <v>88.239538239538234</v>
+        <v>95.065944568333876</v>
       </c>
       <c r="G189" s="91">
         <f t="shared" si="122"/>
@@ -21852,7 +21857,7 @@
       </c>
       <c r="F190" s="24">
         <f t="shared" si="121"/>
-        <v>88.239538239538234</v>
+        <v>95.065944568333876</v>
       </c>
       <c r="G190" s="92">
         <f t="shared" si="122"/>
@@ -21925,7 +21930,7 @@
       </c>
       <c r="F191" s="23">
         <f t="shared" si="121"/>
-        <v>88.239538239538234</v>
+        <v>95.065944568333876</v>
       </c>
       <c r="G191" s="91">
         <f t="shared" si="122"/>
@@ -21998,7 +22003,7 @@
       </c>
       <c r="F192" s="24">
         <f t="shared" si="121"/>
-        <v>88.239538239538234</v>
+        <v>95.065944568333876</v>
       </c>
       <c r="G192" s="92">
         <f t="shared" si="122"/>
@@ -22071,7 +22076,7 @@
       </c>
       <c r="F193" s="23">
         <f t="shared" si="121"/>
-        <v>88.239538239538234</v>
+        <v>95.065944568333876</v>
       </c>
       <c r="G193" s="91">
         <f t="shared" si="122"/>
@@ -22144,7 +22149,7 @@
       </c>
       <c r="F194" s="24">
         <f t="shared" si="121"/>
-        <v>88.239538239538234</v>
+        <v>95.065944568333876</v>
       </c>
       <c r="G194" s="92">
         <f t="shared" si="122"/>
@@ -22217,7 +22222,7 @@
       </c>
       <c r="F195" s="23">
         <f t="shared" si="121"/>
-        <v>88.239538239538234</v>
+        <v>95.065944568333876</v>
       </c>
       <c r="G195" s="91">
         <f t="shared" si="122"/>
@@ -22290,7 +22295,7 @@
       </c>
       <c r="F196" s="24">
         <f t="shared" si="121"/>
-        <v>88.239538239538234</v>
+        <v>95.065944568333876</v>
       </c>
       <c r="G196" s="92">
         <f t="shared" si="122"/>
@@ -22363,7 +22368,7 @@
       </c>
       <c r="F197" s="23">
         <f t="shared" si="121"/>
-        <v>88.239538239538234</v>
+        <v>95.065944568333876</v>
       </c>
       <c r="G197" s="91">
         <f t="shared" si="122"/>
@@ -22436,7 +22441,7 @@
       </c>
       <c r="F198" s="94">
         <f t="shared" si="121"/>
-        <v>88.239538239538234</v>
+        <v>95.065944568333876</v>
       </c>
       <c r="G198" s="93">
         <f t="shared" si="122"/>
@@ -22509,7 +22514,7 @@
       </c>
       <c r="F199" s="23">
         <f t="shared" si="121"/>
-        <v>88.239538239538234</v>
+        <v>95.065944568333876</v>
       </c>
       <c r="G199" s="91">
         <f t="shared" ref="G199:G202" si="138">D199/U$3</f>
@@ -22582,7 +22587,7 @@
       </c>
       <c r="F200" s="24">
         <f t="shared" si="121"/>
-        <v>88.239538239538234</v>
+        <v>95.065944568333876</v>
       </c>
       <c r="G200" s="92">
         <f t="shared" si="138"/>
@@ -22655,7 +22660,7 @@
       </c>
       <c r="F201" s="23">
         <f t="shared" si="121"/>
-        <v>88.239538239538234</v>
+        <v>95.065944568333876</v>
       </c>
       <c r="G201" s="91">
         <f t="shared" si="138"/>
@@ -22728,7 +22733,7 @@
       </c>
       <c r="F202" s="24">
         <f t="shared" si="121"/>
-        <v>88.239538239538234</v>
+        <v>95.065944568333876</v>
       </c>
       <c r="G202" s="92">
         <f t="shared" si="138"/>
@@ -22801,7 +22806,7 @@
       </c>
       <c r="F203" s="23">
         <f t="shared" si="121"/>
-        <v>88.239538239538234</v>
+        <v>95.065944568333876</v>
       </c>
       <c r="G203" s="91">
         <f>D203/U$3</f>
@@ -22874,7 +22879,7 @@
       </c>
       <c r="F204" s="120">
         <f t="shared" si="121"/>
-        <v>88.239538239538234</v>
+        <v>95.065944568333876</v>
       </c>
       <c r="G204" s="121">
         <f t="shared" ref="G204" si="147">D204/U$3</f>
